--- a/绩效考核/2016年第二季度绩效考核表---开发.xlsx
+++ b/绩效考核/2016年第二季度绩效考核表---开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10350"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="绩效考核等级说明" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>绩效考核等级说明</t>
   </si>
@@ -185,6 +185,9 @@
     <t>0-100</t>
   </si>
   <si>
+    <t>能够快速并准确理解需求策划，制定可行性方案，bug相对较少</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -220,6 +223,9 @@
 C（X＜70）需求理解慢，不能把握需求核心，代码完成效率很低，解决bug效率很低</t>
   </si>
   <si>
+    <t>能够较好的结合需求，进行开发工作，并及时解决bug</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -255,6 +261,9 @@
 C（X＜70）产品意识差，代码规范不好，很难被他人理解，框架设计差，扩展性差，稳定性差。自我测试差，bug多</t>
   </si>
   <si>
+    <t>很好的理解产品，并有一定的代码规范意识，能够不断的进行自我测试，增加代码稳定性</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -289,6 +298,9 @@
 C（X＜70）必须同事配合才能解决问题，不能够独立实现功能，同时不能够协助其他员工解决问题</t>
   </si>
   <si>
+    <t>由于开发时间比较紧迫，除了一些未接触过的难点需要请教同事，基本上可以独立完成开发工作，并协助同事解决问题</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -322,6 +334,9 @@
 C（X＜70）工作态度懒散，对工作无责任心。不愿意加班。</t>
   </si>
   <si>
+    <t>工作积极负责，主动沟通解决问题，并不断学习，提高工作技能</t>
+  </si>
+  <si>
     <t>团队合作</t>
   </si>
   <si>
@@ -337,6 +352,9 @@
 C（X＜70）无法融入团队，与同事相处不愉快，无法达到预期的目标</t>
   </si>
   <si>
+    <t>非常乐意分享，在做好自身工作的同时努力配合团队完成共同目标。</t>
+  </si>
+  <si>
     <t>纪律性</t>
   </si>
   <si>
@@ -349,6 +367,9 @@
 A（80≤X＜90）无明显违规情况。考勤基本正常。
 B（70≤X＜80）无严重违规情况，考勤偶尔异常。
 C（X＜70）出现严重违反公司制度的情况（无故旷工或安全事故）</t>
+  </si>
+  <si>
+    <t>能够遵守公司的规范流程，进行请教或工作交接</t>
   </si>
   <si>
     <r>
@@ -388,6 +409,9 @@
 C（X＜70）不能清楚、简洁地表达自己的观点。</t>
   </si>
   <si>
+    <t>交流之前，会先梳理问题，做出有效的沟通及反馈</t>
+  </si>
+  <si>
     <t>学习能力</t>
   </si>
   <si>
@@ -401,6 +425,9 @@
 C（X＜70）不对工具、系统，新知识进行学习，并且对工作造成影响。</t>
   </si>
   <si>
+    <t>善于学习新工具并且运用到工作中，提高工作效率</t>
+  </si>
+  <si>
     <t>知识分享</t>
   </si>
   <si>
@@ -413,6 +440,9 @@
 A（80≤X＜90）在督促下能在小组内进行分享
 B（70≤X＜80）偶尔在小组内做分享
 C（X＜70） 从来不做分享</t>
+  </si>
+  <si>
+    <t>乐于分享，并做好充分的准备，进行技术培训和交流</t>
   </si>
 </sst>
 </file>
@@ -420,12 +450,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,45 +492,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,38 +521,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,6 +591,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -626,187 +663,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,30 +892,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,6 +945,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -940,10 +977,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -952,137 +989,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,6 +1133,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,6 +1144,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1111,34 +1157,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1487,101 +1533,101 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="9" customWidth="1"/>
-    <col min="3" max="3" width="68.625" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="11.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="68.625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="18">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="18">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="18">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" ht="35.1" customHeight="1" spans="1:4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="18">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1595,8 +1641,8 @@
   <sheetPr/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1606,7 +1652,7 @@
     <col min="3" max="3" width="26.1333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.2666666666667" style="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="8.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1628,7 +1674,7 @@
       <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -1645,255 +1691,298 @@
       </c>
     </row>
     <row r="2" ht="108" customHeight="1" spans="1:12">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>0.25</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="8">
+        <v>88</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="8"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" ht="108" spans="1:12">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>0.25</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="8">
+        <v>88</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="8"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" ht="175.5" spans="1:12">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>0.1</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="8">
+        <v>89</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" ht="135" spans="1:12">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>40</v>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>0.1</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="8">
+        <v>91</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="8"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" ht="163.5" customHeight="1" spans="1:12">
-      <c r="A6" s="4" t="s">
-        <v>41</v>
+      <c r="A6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>0.05</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="8">
+        <v>95</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="8"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" ht="159.75" customHeight="1" spans="1:12">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>0.05</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="8">
+        <v>92</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="8"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" ht="105.75" customHeight="1" spans="1:12">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>0.05</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="8">
+        <v>96</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="I8" s="3"/>
-      <c r="J8" s="8"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" ht="137.25" customHeight="1" spans="1:12">
-      <c r="A9" s="4" t="s">
-        <v>51</v>
+      <c r="A9" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>0.05</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="8">
+        <v>89</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="3"/>
-      <c r="J9" s="8"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" ht="136.5" customHeight="1" spans="1:12">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>0.05</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="8">
+        <v>92</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" ht="67.5" spans="1:12">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>0.05</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="8">
+        <v>93</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="7">
+    <row r="12" spans="6:7">
+      <c r="F12" s="10">
         <f>SUM(F2:F11)</f>
         <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>89.85</v>
       </c>
     </row>
   </sheetData>
